--- a/TEST CASE.xlsx
+++ b/TEST CASE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="121">
   <si>
     <t>TEST CASES</t>
   </si>
@@ -87,25 +87,319 @@
   </si>
   <si>
     <t>AUTOMATION</t>
+  </si>
+  <si>
+    <t>REGISTERATION</t>
+  </si>
+  <si>
+    <t>GROUP 7</t>
+  </si>
+  <si>
+    <t>BOOKS/NOVELS</t>
+  </si>
+  <si>
+    <t>TO CHECK REGISTERATION</t>
+  </si>
+  <si>
+    <t>REGISTERATION PAGE LOADED SUCCESFULLY</t>
+  </si>
+  <si>
+    <t>ALL REG FIELDS ARE PRESENT</t>
+  </si>
+  <si>
+    <t>USER NAME FIELD</t>
+  </si>
+  <si>
+    <t>PASSWORD FIELD</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>ENTER VALID USER NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENTER VALID PASSWORD </t>
+  </si>
+  <si>
+    <t>VALID EMAIL</t>
+  </si>
+  <si>
+    <t>REGISTERED SUCCESFULY</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>GENRES</t>
+  </si>
+  <si>
+    <t>DATE OF BIRTH</t>
+  </si>
+  <si>
+    <t>START READING</t>
+  </si>
+  <si>
+    <t>PROFLE</t>
+  </si>
+  <si>
+    <t>PROFILE</t>
+  </si>
+  <si>
+    <t>TO CREATE A PROFILE</t>
+  </si>
+  <si>
+    <t>FIRST NAME</t>
+  </si>
+  <si>
+    <t>LAST NAME</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>GENDER</t>
+  </si>
+  <si>
+    <t>MOBILE</t>
+  </si>
+  <si>
+    <t>PROFILE PHOTO</t>
+  </si>
+  <si>
+    <t>ABOUT</t>
+  </si>
+  <si>
+    <t>FOLLOWERS</t>
+  </si>
+  <si>
+    <t>PROFILE IS UPLOADED</t>
+  </si>
+  <si>
+    <t>EDIT/UPDATE</t>
+  </si>
+  <si>
+    <t>TO EDIT/UPDATE DETAILS IN PROFILE PAGE</t>
+  </si>
+  <si>
+    <t>TO SELECT THE DESIRED GENRE</t>
+  </si>
+  <si>
+    <t>VALID  USER  LOGIN</t>
+  </si>
+  <si>
+    <t>GENRES PAGE SHOULD BE LOADED SUCCESFULLY</t>
+  </si>
+  <si>
+    <t>CLICK ON BROWSE</t>
+  </si>
+  <si>
+    <t>SELECT THE REQUIRED GENRE</t>
+  </si>
+  <si>
+    <t>SELECT THE REQUIRED CATEGORY OR TAG</t>
+  </si>
+  <si>
+    <t>VALIDATION OF BOOK</t>
+  </si>
+  <si>
+    <t>CONFIRM BOOK DESCRIPTION IS OPENED</t>
+  </si>
+  <si>
+    <t>CONFI RM BOOK IS ADDED</t>
+  </si>
+  <si>
+    <t>LANGUAGES</t>
+  </si>
+  <si>
+    <t>TO PREFER THE REQUIRED LANGUAGE</t>
+  </si>
+  <si>
+    <t>LANGUAGES LIST IS DISPLAYED</t>
+  </si>
+  <si>
+    <t>DROP DOWN LIST</t>
+  </si>
+  <si>
+    <t>SELECT REQUIRED LANGUAGE</t>
+  </si>
+  <si>
+    <t>SEARCH</t>
+  </si>
+  <si>
+    <t>SEARCH BOOKS</t>
+  </si>
+  <si>
+    <t>TO SEARCH ANY TYPE OF BOOK</t>
+  </si>
+  <si>
+    <t>SEARCH BAR IS DISPLAYED</t>
+  </si>
+  <si>
+    <t>BY AUTHOR NAME</t>
+  </si>
+  <si>
+    <t>BY BOOK TITLE</t>
+  </si>
+  <si>
+    <t>BY TAGS</t>
+  </si>
+  <si>
+    <t>BY GENRE</t>
+  </si>
+  <si>
+    <t>BY LANGUAGE</t>
+  </si>
+  <si>
+    <t>LIBRARY</t>
+  </si>
+  <si>
+    <t>TO STORE THE BOOKS WHICH WE READ</t>
+  </si>
+  <si>
+    <t>LIBRARY PAGE IS LOADED SUCCESFULLY</t>
+  </si>
+  <si>
+    <t>CREATE DEFAULT LIBRARY</t>
+  </si>
+  <si>
+    <t>CREATE USERS LIBRARY</t>
+  </si>
+  <si>
+    <t>ADD BOOKS TO LIBRARY</t>
+  </si>
+  <si>
+    <t>REMOVE BOOKS FROM LIBRARY</t>
+  </si>
+  <si>
+    <t>ARCHIVE BOOKS FROM LIBRARY</t>
+  </si>
+  <si>
+    <t>READ BOOKS</t>
+  </si>
+  <si>
+    <t>READING LIST</t>
+  </si>
+  <si>
+    <t>WE CAN READ THE BOOKS FROM LIBRARY</t>
+  </si>
+  <si>
+    <t>READING LIST WILL BE DISPLAYED</t>
+  </si>
+  <si>
+    <t>OPEN THE BOOK DESCRIPTION</t>
+  </si>
+  <si>
+    <t>OPEN THE FIRST PAGE OF BOOK</t>
+  </si>
+  <si>
+    <t>OPEN THE LAST VISIT PAGE OF BOOK</t>
+  </si>
+  <si>
+    <t>CREATE STORIES</t>
+  </si>
+  <si>
+    <t>WE CAN CREATE OUR CONCEPTS</t>
+  </si>
+  <si>
+    <t>CREATE PAGE SHOULD BE DISPLAYED</t>
+  </si>
+  <si>
+    <t>ENTER TITLE NAME</t>
+  </si>
+  <si>
+    <t>ENTER DESCRIPTION</t>
+  </si>
+  <si>
+    <t>ENTER AUTHOR NAME</t>
+  </si>
+  <si>
+    <t>ADD COVER PAGE</t>
+  </si>
+  <si>
+    <t>START WRITING</t>
+  </si>
+  <si>
+    <t>ADD MEDIA</t>
+  </si>
+  <si>
+    <t>ADD TO DRAFT</t>
+  </si>
+  <si>
+    <t>PUBLISH BUTTON</t>
+  </si>
+  <si>
+    <t>UPDATE</t>
+  </si>
+  <si>
+    <t>UPDATE STORIES</t>
+  </si>
+  <si>
+    <t>WE CAN ADD NEW CHAPTERS IN A BOOK</t>
+  </si>
+  <si>
+    <t>CHAPTER WILL BE UPLOADED INTO THE BOOK</t>
+  </si>
+  <si>
+    <t>EDIT BUTTON</t>
+  </si>
+  <si>
+    <t>DRAFT BUTTON</t>
+  </si>
+  <si>
+    <t>UPDATE BUTTON</t>
+  </si>
+  <si>
+    <t>NOTIFICATION</t>
+  </si>
+  <si>
+    <t>NOTIFICATIONS</t>
+  </si>
+  <si>
+    <t>WE CAN GET THE NOTIFICATIONS OF AUTHORS UPDATES</t>
+  </si>
+  <si>
+    <t>REDIRECTED TO NOTIFICATION PAGE</t>
+  </si>
+  <si>
+    <t>OPEN MESSAGE</t>
+  </si>
+  <si>
+    <t>VIEW COMMENT</t>
+  </si>
+  <si>
+    <t>REPLY MESSAGE/COMMENT</t>
+  </si>
+  <si>
+    <t>VIEW THE UPDATED STORIES</t>
+  </si>
+  <si>
+    <t>ANNOUNCMENTS</t>
+  </si>
+  <si>
+    <t>RECOMMANDATION</t>
+  </si>
+  <si>
+    <t>RECOMMENDATIONS</t>
+  </si>
+  <si>
+    <t>WE GET THE RECOMMANDATIONS ON HOME PAGE</t>
+  </si>
+  <si>
+    <t>REDIRECTED TO HOME PAGE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Segoe Script"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="20"/>
@@ -137,7 +431,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,83 +712,774 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:BA4"/>
+  <dimension ref="B1:U78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="F47" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="L78" sqref="L78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="10" max="10" width="59.7109375" customWidth="1"/>
+    <col min="11" max="11" width="56.5703125" customWidth="1"/>
+    <col min="12" max="12" width="86" customWidth="1"/>
+    <col min="13" max="13" width="27" customWidth="1"/>
+    <col min="14" max="14" width="31.5703125" customWidth="1"/>
+    <col min="15" max="15" width="31.140625" customWidth="1"/>
+    <col min="16" max="16" width="27.42578125" customWidth="1"/>
+    <col min="17" max="17" width="17.28515625" customWidth="1"/>
+    <col min="18" max="18" width="17.7109375" customWidth="1"/>
+    <col min="19" max="19" width="15" customWidth="1"/>
+    <col min="20" max="20" width="17.5703125" customWidth="1"/>
+    <col min="21" max="21" width="19.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:53" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="I1" s="2" t="s">
+    <row r="1" spans="2:21" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
       <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2">
+        <v>44105</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2">
+        <v>44105</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="L7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="L8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="L10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="L11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B13">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="2">
+        <v>44105</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="2">
+        <v>44105</v>
+      </c>
+      <c r="H13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L13" t="s">
+        <v>41</v>
+      </c>
+      <c r="N13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="L14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="L15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="L16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23">
         <v>3</v>
       </c>
-      <c r="I2" t="s">
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="2">
+        <v>44105</v>
+      </c>
+      <c r="F23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="2">
+        <v>44105</v>
+      </c>
+      <c r="H23" t="s">
+        <v>50</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" t="s">
+        <v>51</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32">
         <v>4</v>
       </c>
-      <c r="L2" t="s">
+      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="2">
+        <v>44105</v>
+      </c>
+      <c r="F32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="2">
+        <v>44105</v>
+      </c>
+      <c r="H32" t="s">
+        <v>35</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J32" t="s">
+        <v>52</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39">
         <v>5</v>
       </c>
-      <c r="O2" t="s">
+      <c r="C39" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="2">
+        <v>44105</v>
+      </c>
+      <c r="F39" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="2">
+        <v>44105</v>
+      </c>
+      <c r="H39" t="s">
+        <v>61</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J39" t="s">
+        <v>62</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="2">
+        <v>44105</v>
+      </c>
+      <c r="F42" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" s="2">
+        <v>44105</v>
+      </c>
+      <c r="H42" t="s">
+        <v>67</v>
+      </c>
+      <c r="J42" t="s">
+        <v>68</v>
+      </c>
+      <c r="K42" t="s">
+        <v>69</v>
+      </c>
+      <c r="L42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B49">
         <v>7</v>
       </c>
-      <c r="R2" t="s">
+      <c r="C49" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="2">
+        <v>44105</v>
+      </c>
+      <c r="F49" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" s="2">
+        <v>44105</v>
+      </c>
+      <c r="H49" t="s">
+        <v>75</v>
+      </c>
+      <c r="J49" t="s">
+        <v>76</v>
+      </c>
+      <c r="K49" t="s">
+        <v>77</v>
+      </c>
+      <c r="L49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B55">
         <v>8</v>
       </c>
-      <c r="T2" t="s">
-        <v>6</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="C55" t="s">
+        <v>83</v>
+      </c>
+      <c r="D55" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55" s="2">
+        <v>44105</v>
+      </c>
+      <c r="F55" t="s">
+        <v>22</v>
+      </c>
+      <c r="G55" s="2">
+        <v>44105</v>
+      </c>
+      <c r="H55" t="s">
+        <v>84</v>
+      </c>
+      <c r="J55" t="s">
+        <v>85</v>
+      </c>
+      <c r="K55" t="s">
+        <v>86</v>
+      </c>
+      <c r="L55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B59">
         <v>9</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="C59" t="s">
+        <v>90</v>
+      </c>
+      <c r="D59" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59" s="2">
+        <v>44105</v>
+      </c>
+      <c r="F59" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59" s="2">
+        <v>44105</v>
+      </c>
+      <c r="H59" t="s">
+        <v>90</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J59" t="s">
+        <v>91</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L59" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L60" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L61" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L62" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L63" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L64" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L65" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L66" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B68">
         <v>10</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="C68" t="s">
+        <v>101</v>
+      </c>
+      <c r="D68" t="s">
+        <v>22</v>
+      </c>
+      <c r="E68" s="2">
+        <v>44105</v>
+      </c>
+      <c r="F68" t="s">
+        <v>22</v>
+      </c>
+      <c r="G68" s="2">
+        <v>44105</v>
+      </c>
+      <c r="H68" t="s">
+        <v>102</v>
+      </c>
+      <c r="J68" t="s">
+        <v>103</v>
+      </c>
+      <c r="K68" t="s">
+        <v>104</v>
+      </c>
+      <c r="L68" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L69" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L70" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B72">
         <v>11</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="C72" t="s">
+        <v>108</v>
+      </c>
+      <c r="D72" t="s">
+        <v>22</v>
+      </c>
+      <c r="E72" s="2">
+        <v>44105</v>
+      </c>
+      <c r="F72" t="s">
+        <v>22</v>
+      </c>
+      <c r="G72" s="2">
+        <v>44105</v>
+      </c>
+      <c r="H72" t="s">
+        <v>109</v>
+      </c>
+      <c r="J72" t="s">
+        <v>110</v>
+      </c>
+      <c r="K72" t="s">
+        <v>111</v>
+      </c>
+      <c r="L72" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L73" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L74" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L75" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L76" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B78">
         <v>12</v>
       </c>
-      <c r="AI2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>19</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="2:53" ht="15" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="E4" s="1"/>
+      <c r="C78" t="s">
+        <v>117</v>
+      </c>
+      <c r="D78" t="s">
+        <v>22</v>
+      </c>
+      <c r="E78" s="2">
+        <v>44105</v>
+      </c>
+      <c r="F78" t="s">
+        <v>22</v>
+      </c>
+      <c r="G78" s="2">
+        <v>44105</v>
+      </c>
+      <c r="H78" t="s">
+        <v>118</v>
+      </c>
+      <c r="J78" t="s">
+        <v>119</v>
+      </c>
+      <c r="K78" t="s">
+        <v>120</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
